--- a/results/hedac/15x15/hedac_15x15_True_2_1000.xlsx
+++ b/results/hedac/15x15/hedac_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,10 +530,10 @@
         <v>0.12148252</v>
       </c>
       <c r="G2" t="n">
-        <v>0.12148252</v>
+        <v>6.41424863</v>
       </c>
       <c r="H2" t="n">
-        <v>6.414251780000001</v>
+        <v>344.48750569</v>
       </c>
       <c r="I2" t="n">
         <v>6.9238358951887</v>
@@ -548,10 +548,10 @@
         <v>0.001786367027448939</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001786367027448939</v>
+        <v>0.8515212965645228</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8515191488070111</v>
+        <v>88.38218234857277</v>
       </c>
       <c r="O2" t="n">
         <v>0.15</v>
@@ -577,10 +577,10 @@
         <v>0.12465032</v>
       </c>
       <c r="G3" t="n">
-        <v>0.12465032</v>
+        <v>10.97185791</v>
       </c>
       <c r="H3" t="n">
-        <v>10.97185595</v>
+        <v>984.2515611700002</v>
       </c>
       <c r="I3" t="n">
         <v>12.19207470800953</v>
@@ -595,10 +595,10 @@
         <v>0.003882158169066486</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003882158169066486</v>
+        <v>1.549100725218475</v>
       </c>
       <c r="N3" t="n">
-        <v>1.549094840622724</v>
+        <v>275.9484917322532</v>
       </c>
       <c r="O3" t="n">
         <v>0.85</v>
@@ -624,10 +624,10 @@
         <v>0.12981579</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06490798</v>
+        <v>1.86627926</v>
       </c>
       <c r="H4" t="n">
-        <v>1.86627559</v>
+        <v>55.36451846999999</v>
       </c>
       <c r="I4" t="n">
         <v>5.133586437346674</v>
@@ -642,10 +642,10 @@
         <v>0.004707122388155748</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002353589748512749</v>
+        <v>0.3353193537182583</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3353221632968062</v>
+        <v>20.95915476158065</v>
       </c>
       <c r="O4" t="n">
         <v>0.15</v>
@@ -671,10 +671,10 @@
         <v>0.12351281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06175628</v>
+        <v>2.988098589999999</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9881023</v>
+        <v>149.2233457</v>
       </c>
       <c r="I5" t="n">
         <v>8.680054339884247</v>
@@ -689,10 +689,10 @@
         <v>0.002219381909442348</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001109456107493421</v>
+        <v>0.5331656409052948</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5331623418178019</v>
+        <v>54.40949202101353</v>
       </c>
       <c r="O5" t="n">
         <v>0.85</v>
@@ -718,10 +718,10 @@
         <v>0.12715029</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0317875</v>
+        <v>0.49024171</v>
       </c>
       <c r="H6" t="n">
-        <v>0.49024325</v>
+        <v>8.056200349999999</v>
       </c>
       <c r="I6" t="n">
         <v>3.949348852197835</v>
@@ -736,10 +736,10 @@
         <v>0.002231048227199962</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0005576880543511453</v>
+        <v>0.1260675616210172</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1260709413798354</v>
+        <v>4.437641135113545</v>
       </c>
       <c r="O6" t="n">
         <v>0.15</v>
@@ -765,10 +765,10 @@
         <v>0.12827448</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03206849</v>
+        <v>0.82102424</v>
       </c>
       <c r="H7" t="n">
-        <v>0.82102784</v>
+        <v>22.01964491</v>
       </c>
       <c r="I7" t="n">
         <v>5.590918920389955</v>
@@ -783,10 +783,10 @@
         <v>0.005391960141151246</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00134778668521723</v>
+        <v>0.1790995858053783</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1791024173120548</v>
+        <v>10.44246761821167</v>
       </c>
       <c r="O7" t="n">
         <v>0.85</v>
@@ -812,10 +812,10 @@
         <v>0.13075444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0217924</v>
+        <v>0.21918958</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2191895</v>
+        <v>2.33280048</v>
       </c>
       <c r="I8" t="n">
         <v>2.424465721356776</v>
@@ -830,10 +830,10 @@
         <v>0.007973102875032773</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001328777140339451</v>
+        <v>0.05426064872468467</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05426078623345475</v>
+        <v>1.248818513056049</v>
       </c>
       <c r="O8" t="n">
         <v>0.15</v>
@@ -859,10 +859,10 @@
         <v>0.12729728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02121612</v>
+        <v>0.3740235</v>
       </c>
       <c r="H9" t="n">
-        <v>0.37402491</v>
+        <v>6.99994068</v>
       </c>
       <c r="I9" t="n">
         <v>4.385748030357625</v>
@@ -877,10 +877,10 @@
         <v>0.001543738945395733</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0002573098403752836</v>
+        <v>0.09163754644614111</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09163683544952381</v>
+        <v>3.785971300709705</v>
       </c>
       <c r="O9" t="n">
         <v>0.85</v>
@@ -906,10 +906,10 @@
         <v>0.12402289</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01550292</v>
+        <v>0.11581932</v>
       </c>
       <c r="H10" t="n">
-        <v>0.11581887</v>
+        <v>0.9122120500000001</v>
       </c>
       <c r="I10" t="n">
         <v>1.741335191239254</v>
@@ -924,10 +924,10 @@
         <v>0.002343093261894186</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000292786949500482</v>
+        <v>0.0270031369982331</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02700363305967405</v>
+        <v>0.440014622725552</v>
       </c>
       <c r="O10" t="n">
         <v>0.15</v>
@@ -953,10 +953,10 @@
         <v>0.1231191</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01538988</v>
+        <v>0.20964824</v>
       </c>
       <c r="H11" t="n">
-        <v>0.20964792</v>
+        <v>3.08285206</v>
       </c>
       <c r="I11" t="n">
         <v>3.846249164138048</v>
@@ -971,10 +971,10 @@
         <v>0.004078952714269344</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0005097572344146163</v>
+        <v>0.0589490348301803</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05894701177048986</v>
+        <v>1.992381930183537</v>
       </c>
       <c r="O11" t="n">
         <v>0.85</v>
@@ -1000,10 +1000,10 @@
         <v>0.12553189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01255315</v>
+        <v>0.07555055999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07555098</v>
+        <v>0.48470289</v>
       </c>
       <c r="I12" t="n">
         <v>1.547589749912435</v>
@@ -1018,10 +1018,10 @@
         <v>0.00228623073614167</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002285730148620417</v>
+        <v>0.01943454797368185</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01943519964458366</v>
+        <v>0.2535836909713923</v>
       </c>
       <c r="O12" t="n">
         <v>0.15</v>
@@ -1047,10 +1047,10 @@
         <v>0.12303358</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01230342</v>
+        <v>0.13468841</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13468784</v>
+        <v>1.59421345</v>
       </c>
       <c r="I13" t="n">
         <v>3.125283730863231</v>
@@ -1065,10 +1065,10 @@
         <v>0.003746829047542937</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0003746179950859839</v>
+        <v>0.03798739386776572</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03798615591733093</v>
+        <v>0.9918099429284268</v>
       </c>
       <c r="O13" t="n">
         <v>0.85</v>

--- a/results/hedac/15x15/hedac_15x15_True_2_1000.xlsx
+++ b/results/hedac/15x15/hedac_15x15_True_2_1000.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
